--- a/docs/Risk_List.xlsx
+++ b/docs/Risk_List.xlsx
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -1196,13 +1196,6 @@
     <t>Avoidance</t>
   </si>
   <si>
-    <t>Trouble obtaining sufficient data for the project to work effectively from the Nintendo servers. Game data will be obtained from e-shop servers using APIs where available and web crawlers where
-not.</t>
-  </si>
-  <si>
-    <t>Erin and the stakeholders have experience with retrieving the relevant data from the Nintendo servers and can assist the case of a fault</t>
-  </si>
-  <si>
     <t>Acceptance</t>
   </si>
   <si>
@@ -1307,22 +1300,26 @@
     <t>Team member not putting in enough hours each week to meet deadlines or refuse to finish aloted work</t>
   </si>
   <si>
-    <t>There are Insufficient people to test the project</t>
-  </si>
-  <si>
-    <t>There may be errors that go unnoticed throughout the development period</t>
-  </si>
-  <si>
-    <t>Errors start showing up after the project has been finalised.</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>A webserver is available so it will be instantly accessible to anyone who wants to test it (after deployment)</t>
+  </si>
+  <si>
+    <t>Trouble obtaining sufficient data for the project to work effectively from the Nintendo servers. Game data will be obtained from e-shop servers using APIs where available and web crawlers where
+not. Games data scraper fails (i.e. API changes, or the structure of a scraped page changes, etc)</t>
+  </si>
+  <si>
+    <t>Design for quick alteration/expandability of data scraper. Erin and the stakeholders have experience with retrieving the relevant data from the Nintendo servers and can assist the case of a fault</t>
+  </si>
+  <si>
+    <t>There is an Insufficient sample size of people to both review games and test for errors in the project</t>
+  </si>
+  <si>
+    <t>Not all games will be rated as there are no current user who had played that game. There may be errors that go unnoticed throughout the development period</t>
+  </si>
+  <si>
+    <t>Games of no ratings. Errors start showing up after the project has been finalised.</t>
   </si>
 </sst>
 </file>
@@ -2123,37 +2120,37 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2738,11 +2735,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="str">
+      <c r="A1" s="82" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
@@ -2918,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2956,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3105,7 +3102,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82">
+      <c r="A7" s="80">
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3121,26 +3118,26 @@
         <f>IF(OR(AND(B7&lt;&gt;"Closed",C7="High",D7="High"),AND(B7&lt;&gt;"Closed",C7="High",D7="Medium"),AND(B7&lt;&gt;"Closed",C7="Medium",D7="High")),"Red",IF(OR(AND(B7&lt;&gt;"Closed",C7="High",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Medium",D7="Medium"),AND(B7&lt;&gt;"Closed",C7="Low",D7="High")),"Yellow",IF(OR(AND(B7&lt;&gt;"Closed",C7="Medium",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",D7="Medium")),"Green",IF(B7="Closed","Closed",""))))</f>
         <v>Red</v>
       </c>
-      <c r="F7" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="75" t="s">
+      <c r="F7" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="73" t="s">
         <v>96</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="73" t="s">
         <v>97</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="80" t="s">
-        <v>140</v>
+      <c r="K7" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>138</v>
       </c>
       <c r="O7" s="4" t="str">
         <f>IF(OR(AND(B7&lt;&gt;"Closed",C7="High",E7="High"), AND(B7&lt;&gt;"Closed",C7="High", E7="Medium"),AND(B7&lt;&gt;"Closed",C7="Medium",E7="High")),"Red",IF(OR(AND(B7&lt;&gt;"Closed",C7="High",E7="Low"), AND(B7&lt;&gt;"Closed",C7="Medium", E7="Medium"),AND(B7&lt;&gt;"Closed",C7="Low",E7="High")),"Yellow",IF(OR(AND(B7&lt;&gt;"Closed",C7="Medium",E7="Low"), AND(B7&lt;&gt;"Closed",C7="Low", E7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",E7="Medium")),"Green","")))</f>
@@ -3148,7 +3145,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82">
+      <c r="A8" s="80">
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3164,25 +3161,25 @@
         <f>IF(OR(AND(B8&lt;&gt;"Closed",C8="High",D8="High"),AND(B8&lt;&gt;"Closed",C8="High",D8="Medium"),AND(B8&lt;&gt;"Closed",C8="Medium",D8="High")),"Red",IF(OR(AND(B8&lt;&gt;"Closed",C8="High",D8="Low"),AND(B8&lt;&gt;"Closed",C8="Medium",D8="Medium"),AND(B8&lt;&gt;"Closed",C8="Low",D8="High")),"Yellow",IF(OR(AND(B8&lt;&gt;"Closed",C8="Medium",D8="Low"),AND(B8&lt;&gt;"Closed",C8="Low",D8="Low"),AND(B8&lt;&gt;"Closed",C8="Low",D8="Medium")),"Green",IF(B8="Closed","Closed",""))))</f>
         <v>Yellow</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="74" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="75" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="76" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3203,25 +3200,25 @@
         <f>IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="High"),AND(B9&lt;&gt;"Closed",C9="High",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="High")),"Red",IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Low",D9="High")),"Yellow",IF(OR(AND(B9&lt;&gt;"Closed",C9="Medium",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Medium")),"Green",IF(B9="Closed","Closed",""))))</f>
         <v>Yellow</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="74" t="s">
         <v>111</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="75" t="s">
         <v>109</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="76" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3242,29 +3239,29 @@
         <f t="shared" ref="E10" si="0">IF(OR(AND(B10&lt;&gt;"Closed",C10="High",D10="High"),AND(B10&lt;&gt;"Closed",C10="High",D10="Medium"),AND(B10&lt;&gt;"Closed",C10="Medium",D10="High")),"Red",IF(OR(AND(B10&lt;&gt;"Closed",C10="High",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Medium",D10="Medium"),AND(B10&lt;&gt;"Closed",C10="Low",D10="High")),"Yellow",IF(OR(AND(B10&lt;&gt;"Closed",C10="Medium",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Low",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Low",D10="Medium")),"Green",IF(B10="Closed","Closed",""))))</f>
         <v>Red</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="74" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="75" t="s">
         <v>120</v>
       </c>
       <c r="J10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="77" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>100</v>
       </c>
@@ -3278,33 +3275,33 @@
         <v>3</v>
       </c>
       <c r="E11" s="61" t="str">
-        <f>IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
+        <f t="shared" ref="E11:E35" si="1">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
         <v>Green</v>
       </c>
-      <c r="F11" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="75" t="s">
         <v>126</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>128</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" s="79" t="s">
-        <v>129</v>
+      <c r="K11" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81">
+      <c r="A12" s="79">
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -3317,29 +3314,29 @@
         <v>2</v>
       </c>
       <c r="E12" s="61" t="str">
-        <f>IF(OR(AND(B12&lt;&gt;"Closed",C12="High",D12="High"),AND(B12&lt;&gt;"Closed",C12="High",D12="Medium"),AND(B12&lt;&gt;"Closed",C12="Medium",D12="High")),"Red",IF(OR(AND(B12&lt;&gt;"Closed",C12="High",D12="Low"),AND(B12&lt;&gt;"Closed",C12="Medium",D12="Medium"),AND(B12&lt;&gt;"Closed",C12="Low",D12="High")),"Yellow",IF(OR(AND(B12&lt;&gt;"Closed",C12="Medium",D12="Low"),AND(B12&lt;&gt;"Closed",C12="Low",D12="Low"),AND(B12&lt;&gt;"Closed",C12="Low",D12="Medium")),"Green",IF(B12="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="75" t="s">
+      <c r="G12" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="75" t="s">
+      <c r="I12" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="75" t="s">
-        <v>125</v>
+      <c r="L12" s="73" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3356,29 +3353,29 @@
         <v>2</v>
       </c>
       <c r="E13" s="61" t="str">
-        <f>IF(OR(AND(B13&lt;&gt;"Closed",C13="High",D13="High"),AND(B13&lt;&gt;"Closed",C13="High",D13="Medium"),AND(B13&lt;&gt;"Closed",C13="Medium",D13="High")),"Red",IF(OR(AND(B13&lt;&gt;"Closed",C13="High",D13="Low"),AND(B13&lt;&gt;"Closed",C13="Medium",D13="Medium"),AND(B13&lt;&gt;"Closed",C13="Low",D13="High")),"Yellow",IF(OR(AND(B13&lt;&gt;"Closed",C13="Medium",D13="Low"),AND(B13&lt;&gt;"Closed",C13="Low",D13="Low"),AND(B13&lt;&gt;"Closed",C13="Low",D13="Medium")),"Green",IF(B13="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="75" t="s">
+      <c r="F13" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="83" t="s">
+      <c r="I13" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="75" t="s">
-        <v>137</v>
+      <c r="L13" s="73" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,29 +3392,29 @@
         <v>2</v>
       </c>
       <c r="E14" s="61" t="str">
-        <f>IF(OR(AND(B14&lt;&gt;"Closed",C14="High",D14="High"),AND(B14&lt;&gt;"Closed",C14="High",D14="Medium"),AND(B14&lt;&gt;"Closed",C14="Medium",D14="High")),"Red",IF(OR(AND(B14&lt;&gt;"Closed",C14="High",D14="Low"),AND(B14&lt;&gt;"Closed",C14="Medium",D14="Medium"),AND(B14&lt;&gt;"Closed",C14="Low",D14="High")),"Yellow",IF(OR(AND(B14&lt;&gt;"Closed",C14="Medium",D14="Low"),AND(B14&lt;&gt;"Closed",C14="Low",D14="Low"),AND(B14&lt;&gt;"Closed",C14="Low",D14="Medium")),"Green",IF(B14="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="75" t="s">
+      <c r="F14" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="73" t="s">
         <v>148</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="75" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,29 +3431,29 @@
         <v>2</v>
       </c>
       <c r="E15" s="61" t="str">
-        <f>IF(OR(AND(B15&lt;&gt;"Closed",C15="High",D15="High"),AND(B15&lt;&gt;"Closed",C15="High",D15="Medium"),AND(B15&lt;&gt;"Closed",C15="Medium",D15="High")),"Red",IF(OR(AND(B15&lt;&gt;"Closed",C15="High",D15="Low"),AND(B15&lt;&gt;"Closed",C15="Medium",D15="Medium"),AND(B15&lt;&gt;"Closed",C15="Low",D15="High")),"Yellow",IF(OR(AND(B15&lt;&gt;"Closed",C15="Medium",D15="Low"),AND(B15&lt;&gt;"Closed",C15="Low",D15="Low"),AND(B15&lt;&gt;"Closed",C15="Low",D15="Medium")),"Green",IF(B15="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Red</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="73" t="s">
         <v>151</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="75" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3473,29 +3470,29 @@
         <v>3</v>
       </c>
       <c r="E16" s="61" t="str">
-        <f>IF(OR(AND(B16&lt;&gt;"Closed",C16="High",D16="High"),AND(B16&lt;&gt;"Closed",C16="High",D16="Medium"),AND(B16&lt;&gt;"Closed",C16="Medium",D16="High")),"Red",IF(OR(AND(B16&lt;&gt;"Closed",C16="High",D16="Low"),AND(B16&lt;&gt;"Closed",C16="Medium",D16="Medium"),AND(B16&lt;&gt;"Closed",C16="Low",D16="High")),"Yellow",IF(OR(AND(B16&lt;&gt;"Closed",C16="Medium",D16="Low"),AND(B16&lt;&gt;"Closed",C16="Low",D16="Low"),AND(B16&lt;&gt;"Closed",C16="Low",D16="Medium")),"Green",IF(B16="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="73" t="s">
         <v>144</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="75" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3512,29 +3509,29 @@
         <v>2</v>
       </c>
       <c r="E17" s="61" t="str">
-        <f>IF(OR(AND(B17&lt;&gt;"Closed",C17="High",D17="High"),AND(B17&lt;&gt;"Closed",C17="High",D17="Medium"),AND(B17&lt;&gt;"Closed",C17="Medium",D17="High")),"Red",IF(OR(AND(B17&lt;&gt;"Closed",C17="High",D17="Low"),AND(B17&lt;&gt;"Closed",C17="Medium",D17="Medium"),AND(B17&lt;&gt;"Closed",C17="Low",D17="High")),"Yellow",IF(OR(AND(B17&lt;&gt;"Closed",C17="Medium",D17="Low"),AND(B17&lt;&gt;"Closed",C17="Low",D17="Low"),AND(B17&lt;&gt;"Closed",C17="Low",D17="Medium")),"Green",IF(B17="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Green</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="73" t="s">
         <v>154</v>
-      </c>
-      <c r="G17" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="75" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3551,34 +3548,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="61" t="str">
-        <f>IF(OR(AND(B18&lt;&gt;"Closed",C18="High",D18="High"),AND(B18&lt;&gt;"Closed",C18="High",D18="Medium"),AND(B18&lt;&gt;"Closed",C18="Medium",D18="High")),"Red",IF(OR(AND(B18&lt;&gt;"Closed",C18="High",D18="Low"),AND(B18&lt;&gt;"Closed",C18="Medium",D18="Medium"),AND(B18&lt;&gt;"Closed",C18="Low",D18="High")),"Yellow",IF(OR(AND(B18&lt;&gt;"Closed",C18="Medium",D18="Low"),AND(B18&lt;&gt;"Closed",C18="Low",D18="Low"),AND(B18&lt;&gt;"Closed",C18="Low",D18="Medium")),"Green",IF(B18="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="75" t="s">
+      <c r="G18" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="76" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>9</v>
@@ -3590,49 +3587,44 @@
         <v>3</v>
       </c>
       <c r="E19" s="61" t="str">
-        <f>IF(OR(AND(B19&lt;&gt;"Closed",C19="High",D19="High"),AND(B19&lt;&gt;"Closed",C19="High",D19="Medium"),AND(B19&lt;&gt;"Closed",C19="Medium",D19="High")),"Red",IF(OR(AND(B19&lt;&gt;"Closed",C19="High",D19="Low"),AND(B19&lt;&gt;"Closed",C19="Medium",D19="Medium"),AND(B19&lt;&gt;"Closed",C19="Low",D19="High")),"Yellow",IF(OR(AND(B19&lt;&gt;"Closed",C19="Medium",D19="Low"),AND(B19&lt;&gt;"Closed",C19="Low",D19="Low"),AND(B19&lt;&gt;"Closed",C19="Low",D19="Medium")),"Green",IF(B19="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v>Green</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="75" t="s">
+      <c r="F19" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="75" t="s">
+      <c r="I19" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="75" t="s">
-        <v>163</v>
+      <c r="L19" s="73" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="14"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="61" t="str">
-        <f>IF(OR(AND(B20&lt;&gt;"Closed",C20="High",D20="High"),AND(B20&lt;&gt;"Closed",C20="High",D20="Medium"),AND(B20&lt;&gt;"Closed",C20="Medium",D20="High")),"Red",IF(OR(AND(B20&lt;&gt;"Closed",C20="High",D20="Low"),AND(B20&lt;&gt;"Closed",C20="Medium",D20="Medium"),AND(B20&lt;&gt;"Closed",C20="Low",D20="High")),"Yellow",IF(OR(AND(B20&lt;&gt;"Closed",C20="Medium",D20="Low"),AND(B20&lt;&gt;"Closed",C20="Low",D20="Low"),AND(B20&lt;&gt;"Closed",C20="Low",D20="Medium")),"Green",IF(B20="Closed","Closed",""))))</f>
-        <v/>
-      </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
@@ -3640,16 +3632,16 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="61" t="str">
-        <f>IF(OR(AND(B21&lt;&gt;"Closed",C21="High",D21="High"),AND(B21&lt;&gt;"Closed",C21="High",D21="Medium"),AND(B21&lt;&gt;"Closed",C21="Medium",D21="High")),"Red",IF(OR(AND(B21&lt;&gt;"Closed",C21="High",D21="Low"),AND(B21&lt;&gt;"Closed",C21="Medium",D21="Medium"),AND(B21&lt;&gt;"Closed",C21="Low",D21="High")),"Yellow",IF(OR(AND(B21&lt;&gt;"Closed",C21="Medium",D21="Low"),AND(B21&lt;&gt;"Closed",C21="Low",D21="Low"),AND(B21&lt;&gt;"Closed",C21="Low",D21="Medium")),"Green",IF(B21="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
@@ -3657,16 +3649,16 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="61" t="str">
-        <f>IF(OR(AND(B22&lt;&gt;"Closed",C22="High",D22="High"),AND(B22&lt;&gt;"Closed",C22="High",D22="Medium"),AND(B22&lt;&gt;"Closed",C22="Medium",D22="High")),"Red",IF(OR(AND(B22&lt;&gt;"Closed",C22="High",D22="Low"),AND(B22&lt;&gt;"Closed",C22="Medium",D22="Medium"),AND(B22&lt;&gt;"Closed",C22="Low",D22="High")),"Yellow",IF(OR(AND(B22&lt;&gt;"Closed",C22="Medium",D22="Low"),AND(B22&lt;&gt;"Closed",C22="Low",D22="Low"),AND(B22&lt;&gt;"Closed",C22="Low",D22="Medium")),"Green",IF(B22="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -3674,16 +3666,16 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="61" t="str">
-        <f>IF(OR(AND(B23&lt;&gt;"Closed",C23="High",D23="High"),AND(B23&lt;&gt;"Closed",C23="High",D23="Medium"),AND(B23&lt;&gt;"Closed",C23="Medium",D23="High")),"Red",IF(OR(AND(B23&lt;&gt;"Closed",C23="High",D23="Low"),AND(B23&lt;&gt;"Closed",C23="Medium",D23="Medium"),AND(B23&lt;&gt;"Closed",C23="Low",D23="High")),"Yellow",IF(OR(AND(B23&lt;&gt;"Closed",C23="Medium",D23="Low"),AND(B23&lt;&gt;"Closed",C23="Low",D23="Low"),AND(B23&lt;&gt;"Closed",C23="Low",D23="Medium")),"Green",IF(B23="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
@@ -3691,16 +3683,16 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="61" t="str">
-        <f>IF(OR(AND(B24&lt;&gt;"Closed",C24="High",D24="High"),AND(B24&lt;&gt;"Closed",C24="High",D24="Medium"),AND(B24&lt;&gt;"Closed",C24="Medium",D24="High")),"Red",IF(OR(AND(B24&lt;&gt;"Closed",C24="High",D24="Low"),AND(B24&lt;&gt;"Closed",C24="Medium",D24="Medium"),AND(B24&lt;&gt;"Closed",C24="Low",D24="High")),"Yellow",IF(OR(AND(B24&lt;&gt;"Closed",C24="Medium",D24="Low"),AND(B24&lt;&gt;"Closed",C24="Low",D24="Low"),AND(B24&lt;&gt;"Closed",C24="Low",D24="Medium")),"Green",IF(B24="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
@@ -3708,16 +3700,16 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="61" t="str">
-        <f>IF(OR(AND(B25&lt;&gt;"Closed",C25="High",D25="High"),AND(B25&lt;&gt;"Closed",C25="High",D25="Medium"),AND(B25&lt;&gt;"Closed",C25="Medium",D25="High")),"Red",IF(OR(AND(B25&lt;&gt;"Closed",C25="High",D25="Low"),AND(B25&lt;&gt;"Closed",C25="Medium",D25="Medium"),AND(B25&lt;&gt;"Closed",C25="Low",D25="High")),"Yellow",IF(OR(AND(B25&lt;&gt;"Closed",C25="Medium",D25="Low"),AND(B25&lt;&gt;"Closed",C25="Low",D25="Low"),AND(B25&lt;&gt;"Closed",C25="Low",D25="Medium")),"Green",IF(B25="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
@@ -3725,16 +3717,16 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="61" t="str">
-        <f>IF(OR(AND(B26&lt;&gt;"Closed",C26="High",D26="High"),AND(B26&lt;&gt;"Closed",C26="High",D26="Medium"),AND(B26&lt;&gt;"Closed",C26="Medium",D26="High")),"Red",IF(OR(AND(B26&lt;&gt;"Closed",C26="High",D26="Low"),AND(B26&lt;&gt;"Closed",C26="Medium",D26="Medium"),AND(B26&lt;&gt;"Closed",C26="Low",D26="High")),"Yellow",IF(OR(AND(B26&lt;&gt;"Closed",C26="Medium",D26="Low"),AND(B26&lt;&gt;"Closed",C26="Low",D26="Low"),AND(B26&lt;&gt;"Closed",C26="Low",D26="Medium")),"Green",IF(B26="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -3742,16 +3734,16 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="61" t="str">
-        <f>IF(OR(AND(B27&lt;&gt;"Closed",C27="High",D27="High"),AND(B27&lt;&gt;"Closed",C27="High",D27="Medium"),AND(B27&lt;&gt;"Closed",C27="Medium",D27="High")),"Red",IF(OR(AND(B27&lt;&gt;"Closed",C27="High",D27="Low"),AND(B27&lt;&gt;"Closed",C27="Medium",D27="Medium"),AND(B27&lt;&gt;"Closed",C27="Low",D27="High")),"Yellow",IF(OR(AND(B27&lt;&gt;"Closed",C27="Medium",D27="Low"),AND(B27&lt;&gt;"Closed",C27="Low",D27="Low"),AND(B27&lt;&gt;"Closed",C27="Low",D27="Medium")),"Green",IF(B27="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
@@ -3759,16 +3751,16 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="61" t="str">
-        <f>IF(OR(AND(B28&lt;&gt;"Closed",C28="High",D28="High"),AND(B28&lt;&gt;"Closed",C28="High",D28="Medium"),AND(B28&lt;&gt;"Closed",C28="Medium",D28="High")),"Red",IF(OR(AND(B28&lt;&gt;"Closed",C28="High",D28="Low"),AND(B28&lt;&gt;"Closed",C28="Medium",D28="Medium"),AND(B28&lt;&gt;"Closed",C28="Low",D28="High")),"Yellow",IF(OR(AND(B28&lt;&gt;"Closed",C28="Medium",D28="Low"),AND(B28&lt;&gt;"Closed",C28="Low",D28="Low"),AND(B28&lt;&gt;"Closed",C28="Low",D28="Medium")),"Green",IF(B28="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
@@ -3776,7 +3768,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="61" t="str">
-        <f>IF(OR(AND(B29&lt;&gt;"Closed",C29="High",D29="High"),AND(B29&lt;&gt;"Closed",C29="High",D29="Medium"),AND(B29&lt;&gt;"Closed",C29="Medium",D29="High")),"Red",IF(OR(AND(B29&lt;&gt;"Closed",C29="High",D29="Low"),AND(B29&lt;&gt;"Closed",C29="Medium",D29="Medium"),AND(B29&lt;&gt;"Closed",C29="Low",D29="High")),"Yellow",IF(OR(AND(B29&lt;&gt;"Closed",C29="Medium",D29="Low"),AND(B29&lt;&gt;"Closed",C29="Low",D29="Low"),AND(B29&lt;&gt;"Closed",C29="Low",D29="Medium")),"Green",IF(B29="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F29" s="42"/>
@@ -3793,7 +3785,7 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="61" t="str">
-        <f>IF(OR(AND(B30&lt;&gt;"Closed",C30="High",D30="High"),AND(B30&lt;&gt;"Closed",C30="High",D30="Medium"),AND(B30&lt;&gt;"Closed",C30="Medium",D30="High")),"Red",IF(OR(AND(B30&lt;&gt;"Closed",C30="High",D30="Low"),AND(B30&lt;&gt;"Closed",C30="Medium",D30="Medium"),AND(B30&lt;&gt;"Closed",C30="Low",D30="High")),"Yellow",IF(OR(AND(B30&lt;&gt;"Closed",C30="Medium",D30="Low"),AND(B30&lt;&gt;"Closed",C30="Low",D30="Low"),AND(B30&lt;&gt;"Closed",C30="Low",D30="Medium")),"Green",IF(B30="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F30" s="42"/>
@@ -3810,7 +3802,7 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="61" t="str">
-        <f>IF(OR(AND(B31&lt;&gt;"Closed",C31="High",D31="High"),AND(B31&lt;&gt;"Closed",C31="High",D31="Medium"),AND(B31&lt;&gt;"Closed",C31="Medium",D31="High")),"Red",IF(OR(AND(B31&lt;&gt;"Closed",C31="High",D31="Low"),AND(B31&lt;&gt;"Closed",C31="Medium",D31="Medium"),AND(B31&lt;&gt;"Closed",C31="Low",D31="High")),"Yellow",IF(OR(AND(B31&lt;&gt;"Closed",C31="Medium",D31="Low"),AND(B31&lt;&gt;"Closed",C31="Low",D31="Low"),AND(B31&lt;&gt;"Closed",C31="Low",D31="Medium")),"Green",IF(B31="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F31" s="42"/>
@@ -3827,7 +3819,7 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="61" t="str">
-        <f>IF(OR(AND(B32&lt;&gt;"Closed",C32="High",D32="High"),AND(B32&lt;&gt;"Closed",C32="High",D32="Medium"),AND(B32&lt;&gt;"Closed",C32="Medium",D32="High")),"Red",IF(OR(AND(B32&lt;&gt;"Closed",C32="High",D32="Low"),AND(B32&lt;&gt;"Closed",C32="Medium",D32="Medium"),AND(B32&lt;&gt;"Closed",C32="Low",D32="High")),"Yellow",IF(OR(AND(B32&lt;&gt;"Closed",C32="Medium",D32="Low"),AND(B32&lt;&gt;"Closed",C32="Low",D32="Low"),AND(B32&lt;&gt;"Closed",C32="Low",D32="Medium")),"Green",IF(B32="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F32" s="42"/>
@@ -3844,7 +3836,7 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="61" t="str">
-        <f>IF(OR(AND(B33&lt;&gt;"Closed",C33="High",D33="High"),AND(B33&lt;&gt;"Closed",C33="High",D33="Medium"),AND(B33&lt;&gt;"Closed",C33="Medium",D33="High")),"Red",IF(OR(AND(B33&lt;&gt;"Closed",C33="High",D33="Low"),AND(B33&lt;&gt;"Closed",C33="Medium",D33="Medium"),AND(B33&lt;&gt;"Closed",C33="Low",D33="High")),"Yellow",IF(OR(AND(B33&lt;&gt;"Closed",C33="Medium",D33="Low"),AND(B33&lt;&gt;"Closed",C33="Low",D33="Low"),AND(B33&lt;&gt;"Closed",C33="Low",D33="Medium")),"Green",IF(B33="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F33" s="42"/>
@@ -3861,7 +3853,7 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="61" t="str">
-        <f>IF(OR(AND(B34&lt;&gt;"Closed",C34="High",D34="High"),AND(B34&lt;&gt;"Closed",C34="High",D34="Medium"),AND(B34&lt;&gt;"Closed",C34="Medium",D34="High")),"Red",IF(OR(AND(B34&lt;&gt;"Closed",C34="High",D34="Low"),AND(B34&lt;&gt;"Closed",C34="Medium",D34="Medium"),AND(B34&lt;&gt;"Closed",C34="Low",D34="High")),"Yellow",IF(OR(AND(B34&lt;&gt;"Closed",C34="Medium",D34="Low"),AND(B34&lt;&gt;"Closed",C34="Low",D34="Low"),AND(B34&lt;&gt;"Closed",C34="Low",D34="Medium")),"Green",IF(B34="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F34" s="42"/>
@@ -3877,7 +3869,7 @@
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="15" t="str">
-        <f>IF(OR(AND(B35&lt;&gt;"Closed",C35="High",D35="High"),AND(B35&lt;&gt;"Closed",C35="High",D35="Medium"),AND(B35&lt;&gt;"Closed",C35="Medium",D35="High")),"Red",IF(OR(AND(B35&lt;&gt;"Closed",C35="High",D35="Low"),AND(B35&lt;&gt;"Closed",C35="Medium",D35="Medium"),AND(B35&lt;&gt;"Closed",C35="Low",D35="High")),"Yellow",IF(OR(AND(B35&lt;&gt;"Closed",C35="Medium",D35="Low"),AND(B35&lt;&gt;"Closed",C35="Low",D35="Low"),AND(B35&lt;&gt;"Closed",C35="Low",D35="Medium")),"Green",IF(B35="Closed","Closed",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F35" s="44"/>

--- a/docs/Risk_List.xlsx
+++ b/docs/Risk_List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\ITC303\ITC303\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java projects\ITC303\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Risk_Tracking_Log!$1:$6</definedName>
     <definedName name="Risk_Area">DropDown_Elements!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -1151,9 +1151,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>work, family, study and other commitments can effect how much time each team member can contribute. All team members have other priorities that must also be met in their daily activities.</t>
-  </si>
-  <si>
     <t>Contingency</t>
   </si>
   <si>
@@ -1306,26 +1303,65 @@
     <t>A webserver is available so it will be instantly accessible to anyone who wants to test it (after deployment)</t>
   </si>
   <si>
-    <t>Trouble obtaining sufficient data for the project to work effectively from the Nintendo servers. Game data will be obtained from e-shop servers using APIs where available and web crawlers where
+    <t>Design for quick alteration/expandability of data scraper. Erin and the stakeholders have experience with retrieving the relevant data from the Nintendo servers and can assist the case of a fault</t>
+  </si>
+  <si>
+    <t>There is an Insufficient sample size of people to both review games and test for errors in the project</t>
+  </si>
+  <si>
+    <t>Not all games will be rated as there are no current user who had played that game. There may be errors that go unnoticed throughout the development period</t>
+  </si>
+  <si>
+    <t>Games of no ratings. Errors start showing up after the project has been finalised.</t>
+  </si>
+  <si>
+    <t>work, family, study and other commitments can affect how much time each team member can contribute. All team members have other priorities that must also be met in their daily activities.</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>A lot of extra work to troubleshoot without any benefit being added to the project.</t>
+  </si>
+  <si>
+    <t>A member changes project environment without consultation</t>
+  </si>
+  <si>
+    <t>Development slows down</t>
+  </si>
+  <si>
+    <t>Affected member puts in extra time.</t>
+  </si>
+  <si>
+    <t>Affected member buys a new computer.</t>
+  </si>
+  <si>
+    <t>Trouble obtaining sufficient data for the project to work effectively from the Nintendo, Steam, XBox, and Playstation servers. Game data will be obtained from e-shop servers using APIs where available and web crawlers where
 not. Games data scraper fails (i.e. API changes, or the structure of a scraped page changes, etc)</t>
   </si>
   <si>
-    <t>Design for quick alteration/expandability of data scraper. Erin and the stakeholders have experience with retrieving the relevant data from the Nintendo servers and can assist the case of a fault</t>
-  </si>
-  <si>
-    <t>There is an Insufficient sample size of people to both review games and test for errors in the project</t>
-  </si>
-  <si>
-    <t>Not all games will be rated as there are no current user who had played that game. There may be errors that go unnoticed throughout the development period</t>
-  </si>
-  <si>
-    <t>Games of no ratings. Errors start showing up after the project has been finalised.</t>
+    <t>Game data servers APIs are restricted</t>
+  </si>
+  <si>
+    <t>Scraping may fail after a period of time</t>
+  </si>
+  <si>
+    <t>Project resources</t>
+  </si>
+  <si>
+    <t>Games not appearing and the database being a lot smaller than expected</t>
+  </si>
+  <si>
+    <t>Buying for a paid API account</t>
+  </si>
+  <si>
+    <t>Applying for multiple free API accounts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2727,21 +2763,21 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
@@ -2749,19 +2785,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="41.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="62" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="20.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
@@ -2793,7 +2829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="52" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +2845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +2853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>61</v>
       </c>
@@ -2825,7 +2861,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>62</v>
       </c>
@@ -2833,7 +2869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>63</v>
       </c>
@@ -2841,7 +2877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>64</v>
       </c>
@@ -2849,7 +2885,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
@@ -2857,7 +2893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>70</v>
       </c>
@@ -2865,8 +2901,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>66</v>
       </c>
@@ -2882,8 +2918,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
@@ -2891,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
@@ -2915,31 +2951,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="8" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="46" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="46" customWidth="1"/>
     <col min="11" max="11" width="35" style="46" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" style="46" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
+    <col min="12" max="12" width="24.81640625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="4"/>
     <col min="15" max="15" width="6" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2956,7 +2992,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +3019,7 @@
       <c r="T2" s="63"/>
       <c r="U2" s="63"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
@@ -3010,7 +3046,7 @@
       <c r="T3" s="63"/>
       <c r="U3" s="63"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3037,7 +3073,7 @@
       <c r="T4" s="63"/>
       <c r="U4" s="63"/>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3063,7 +3099,7 @@
       <c r="T5" s="63"/>
       <c r="U5" s="63"/>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
@@ -3101,7 +3137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80">
         <v>1</v>
       </c>
@@ -3119,7 +3155,7 @@
         <v>Red</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="73" t="s">
         <v>96</v>
@@ -3131,20 +3167,20 @@
         <v>97</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>137</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>138</v>
       </c>
       <c r="O7" s="4" t="str">
         <f>IF(OR(AND(B7&lt;&gt;"Closed",C7="High",E7="High"), AND(B7&lt;&gt;"Closed",C7="High", E7="Medium"),AND(B7&lt;&gt;"Closed",C7="Medium",E7="High")),"Red",IF(OR(AND(B7&lt;&gt;"Closed",C7="High",E7="Low"), AND(B7&lt;&gt;"Closed",C7="Medium", E7="Medium"),AND(B7&lt;&gt;"Closed",C7="Low",E7="High")),"Yellow",IF(OR(AND(B7&lt;&gt;"Closed",C7="Medium",E7="Low"), AND(B7&lt;&gt;"Closed",C7="Low", E7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",E7="Medium")),"Green","")))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80">
         <v>2</v>
       </c>
@@ -3162,16 +3198,16 @@
         <v>Yellow</v>
       </c>
       <c r="F8" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="74" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>68</v>
@@ -3183,7 +3219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>98</v>
       </c>
@@ -3201,28 +3237,28 @@
         <v>Yellow</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" s="76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>99</v>
       </c>
@@ -3243,13 +3279,13 @@
         <v>82</v>
       </c>
       <c r="G10" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="75" t="s">
         <v>119</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>120</v>
       </c>
       <c r="J10" s="71" t="s">
         <v>68</v>
@@ -3258,10 +3294,10 @@
         <v>84</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>100</v>
       </c>
@@ -3279,28 +3315,28 @@
         <v>Green</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G11" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="I11" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="J11" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
         <v>6</v>
       </c>
@@ -3321,25 +3357,25 @@
         <v>83</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="73" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="73" t="s">
         <v>85</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
@@ -3357,16 +3393,16 @@
         <v>Yellow</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="81" t="s">
         <v>68</v>
@@ -3375,10 +3411,10 @@
         <v>86</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>102</v>
       </c>
@@ -3396,16 +3432,16 @@
         <v>Yellow</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="73" t="s">
         <v>75</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" s="81" t="s">
         <v>68</v>
@@ -3414,10 +3450,10 @@
         <v>87</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>103</v>
       </c>
@@ -3438,13 +3474,13 @@
         <v>88</v>
       </c>
       <c r="G15" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="73" t="s">
         <v>149</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>150</v>
       </c>
       <c r="J15" s="81" t="s">
         <v>68</v>
@@ -3453,10 +3489,10 @@
         <v>89</v>
       </c>
       <c r="L15" s="73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>104</v>
       </c>
@@ -3477,13 +3513,13 @@
         <v>90</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="73" t="s">
         <v>142</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>143</v>
       </c>
       <c r="J16" s="73" t="s">
         <v>68</v>
@@ -3492,10 +3528,10 @@
         <v>91</v>
       </c>
       <c r="L16" s="73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>105</v>
       </c>
@@ -3513,16 +3549,16 @@
         <v>Green</v>
       </c>
       <c r="F17" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="73" t="s">
         <v>152</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="73" t="s">
-        <v>153</v>
       </c>
       <c r="J17" s="73" t="s">
         <v>68</v>
@@ -3531,10 +3567,10 @@
         <v>92</v>
       </c>
       <c r="L17" s="73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>106</v>
       </c>
@@ -3555,13 +3591,13 @@
         <v>93</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="73" t="s">
         <v>68</v>
@@ -3570,12 +3606,12 @@
         <v>94</v>
       </c>
       <c r="L18" s="76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>9</v>
@@ -3591,59 +3627,101 @@
         <v>Green</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H19" s="73" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F20" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="61" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Green</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="14"/>
       <c r="C22" s="27"/>
@@ -3660,7 +3738,7 @@
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="14"/>
       <c r="C23" s="27"/>
@@ -3677,7 +3755,7 @@
       <c r="K23" s="73"/>
       <c r="L23" s="73"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="14"/>
       <c r="C24" s="27"/>
@@ -3694,7 +3772,7 @@
       <c r="K24" s="73"/>
       <c r="L24" s="73"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="27"/>
@@ -3711,7 +3789,7 @@
       <c r="K25" s="73"/>
       <c r="L25" s="73"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="27"/>
@@ -3728,7 +3806,7 @@
       <c r="K26" s="73"/>
       <c r="L26" s="73"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="27"/>
@@ -3745,7 +3823,7 @@
       <c r="K27" s="73"/>
       <c r="L27" s="73"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="14"/>
       <c r="C28" s="27"/>
@@ -3762,7 +3840,7 @@
       <c r="K28" s="73"/>
       <c r="L28" s="73"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="14"/>
       <c r="C29" s="27"/>
@@ -3779,7 +3857,7 @@
       <c r="K29" s="69"/>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="14"/>
       <c r="C30" s="27"/>
@@ -3796,7 +3874,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="43"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="14"/>
       <c r="C31" s="27"/>
@@ -3813,7 +3891,7 @@
       <c r="K31" s="69"/>
       <c r="L31" s="43"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="14"/>
       <c r="C32" s="27"/>
@@ -3830,7 +3908,7 @@
       <c r="K32" s="69"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="14"/>
       <c r="C33" s="27"/>
@@ -3847,7 +3925,7 @@
       <c r="K33" s="69"/>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="27"/>
@@ -3864,7 +3942,7 @@
       <c r="K34" s="69"/>
       <c r="L34" s="43"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
@@ -3958,7 +4036,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:K35 C7:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D35 K22:K35">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H35">
@@ -3988,107 +4066,107 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>45</v>
       </c>

--- a/docs/Risk_List.xlsx
+++ b/docs/Risk_List.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risk_Tracking_Log!$B$6:$D$6</definedName>
     <definedName name="as">[1]DropDown_Elements!$A$2:$A$30</definedName>
     <definedName name="OLE_LINK1" localSheetId="1">Risk_Tracking_Log!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Risk_Tracking_Log!$A$1:$M$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Risk_Tracking_Log!$A$1:$M$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Risk_Tracking_Log!$1:$6</definedName>
     <definedName name="Risk_Area">DropDown_Elements!$A$2:$A$30</definedName>
   </definedNames>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -1067,9 +1067,6 @@
     <t>Complete the Project Name, NC, Project Manager Name, and Project Description fields</t>
   </si>
   <si>
-    <t>You might also like</t>
-  </si>
-  <si>
     <t>Have a variety of stake holders become a part of the project development. Input from all stakeholders will be valued but the end decision falls to the team. The project will not be tailored to one specific stakeholder.</t>
   </si>
   <si>
@@ -1320,6 +1317,63 @@
   </si>
   <si>
     <t>Games of no ratings. Errors start showing up after the project has been finalised.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>You May Dig</t>
+  </si>
+  <si>
+    <t>HTML GUI doesn’t line up with intended funtionality of project</t>
+  </si>
+  <si>
+    <t>The user interface doesn’t allow the users to easily complete core functional requirements e.g. The login option is too small or out of the way for users to find.</t>
+  </si>
+  <si>
+    <t>Users will complain about non-functional user interface</t>
+  </si>
+  <si>
+    <t>All use cases will be tested to ensure that navigation and information are easily accessable.</t>
+  </si>
+  <si>
+    <t>Include a tutorial or hints feature</t>
+  </si>
+  <si>
+    <t>cross platform compatability.  The GUI must be funstional for both mobile and PC browser.</t>
+  </si>
+  <si>
+    <t>The GUI cannot scale to different mobile screen resolutions and ratios</t>
+  </si>
+  <si>
+    <t>If the mobile compatibility is unavailiable or not fluid, our site will not be used by the mobile market</t>
+  </si>
+  <si>
+    <t>create two separate GUI views for mobile and pc</t>
+  </si>
+  <si>
+    <t>Use bootstap HTML as it allows for easier mobile intergration</t>
+  </si>
+  <si>
+    <t>External datbase fails. If the e.g. Steam game data base is down for maitanance our database wont populate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>The site wont be able to populate for that particular platform e.g. if steam is down only steam games wont be accessible.</t>
+  </si>
+  <si>
+    <t>Site wont populate certain games</t>
+  </si>
+  <si>
+    <t>The companies that maintain these datbases have their own back up systems in place. To lower our costs we are relying on their contingency plans</t>
+  </si>
+  <si>
+    <t>Create our own copy of these data bases to use as a backup, and update them on a daily or weekly schedule</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1507,7 +1561,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1516,37 +1570,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1743,21 +1767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1793,30 +1802,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1908,7 +1893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1944,220 +1929,217 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -2253,20 +2235,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2723,179 +2691,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93" style="10" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="70" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="41" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="41" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2913,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2926,14 +2894,14 @@
     <col min="3" max="3" width="8" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="46" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="35" style="46" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="35" style="40" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" style="40" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="4"/>
     <col min="15" max="15" width="6" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="4"/>
@@ -2943,201 +2911,201 @@
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="49" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80">
+      <c r="A7" s="68">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="61" t="str">
+      <c r="E7" s="53" t="str">
         <f>IF(OR(AND(B7&lt;&gt;"Closed",C7="High",D7="High"),AND(B7&lt;&gt;"Closed",C7="High",D7="Medium"),AND(B7&lt;&gt;"Closed",C7="Medium",D7="High")),"Red",IF(OR(AND(B7&lt;&gt;"Closed",C7="High",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Medium",D7="Medium"),AND(B7&lt;&gt;"Closed",C7="Low",D7="High")),"Yellow",IF(OR(AND(B7&lt;&gt;"Closed",C7="Medium",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",D7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",D7="Medium")),"Green",IF(B7="Closed","Closed",""))))</f>
         <v>Red</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="73" t="s">
+      <c r="L7" s="66" t="s">
         <v>137</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>138</v>
       </c>
       <c r="O7" s="4" t="str">
         <f>IF(OR(AND(B7&lt;&gt;"Closed",C7="High",E7="High"), AND(B7&lt;&gt;"Closed",C7="High", E7="Medium"),AND(B7&lt;&gt;"Closed",C7="Medium",E7="High")),"Red",IF(OR(AND(B7&lt;&gt;"Closed",C7="High",E7="Low"), AND(B7&lt;&gt;"Closed",C7="Medium", E7="Medium"),AND(B7&lt;&gt;"Closed",C7="Low",E7="High")),"Yellow",IF(OR(AND(B7&lt;&gt;"Closed",C7="Medium",E7="Low"), AND(B7&lt;&gt;"Closed",C7="Low", E7="Low"),AND(B7&lt;&gt;"Closed",C7="Low",E7="Medium")),"Green","")))</f>
@@ -3145,764 +3113,769 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80">
+      <c r="A8" s="68">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="61" t="str">
+      <c r="E8" s="53" t="str">
         <f>IF(OR(AND(B8&lt;&gt;"Closed",C8="High",D8="High"),AND(B8&lt;&gt;"Closed",C8="High",D8="Medium"),AND(B8&lt;&gt;"Closed",C8="Medium",D8="High")),"Red",IF(OR(AND(B8&lt;&gt;"Closed",C8="High",D8="Low"),AND(B8&lt;&gt;"Closed",C8="Medium",D8="Medium"),AND(B8&lt;&gt;"Closed",C8="Low",D8="High")),"Yellow",IF(OR(AND(B8&lt;&gt;"Closed",C8="Medium",D8="Low"),AND(B8&lt;&gt;"Closed",C8="Low",D8="Low"),AND(B8&lt;&gt;"Closed",C8="Low",D8="Medium")),"Green",IF(B8="Closed","Closed",""))))</f>
         <v>Yellow</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="H8" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="64" t="s">
         <v>80</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="61" t="str">
+      <c r="E9" s="53" t="str">
         <f>IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="High"),AND(B9&lt;&gt;"Closed",C9="High",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="High")),"Red",IF(OR(AND(B9&lt;&gt;"Closed",C9="High",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Medium",D9="Medium"),AND(B9&lt;&gt;"Closed",C9="Low",D9="High")),"Yellow",IF(OR(AND(B9&lt;&gt;"Closed",C9="Medium",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Low"),AND(B9&lt;&gt;"Closed",C9="Low",D9="Medium")),"Green",IF(B9="Closed","Closed",""))))</f>
         <v>Yellow</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="F9" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="76" t="s">
-        <v>116</v>
+      <c r="L9" s="64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="61" t="str">
+      <c r="E10" s="53" t="str">
         <f t="shared" ref="E10" si="0">IF(OR(AND(B10&lt;&gt;"Closed",C10="High",D10="High"),AND(B10&lt;&gt;"Closed",C10="High",D10="Medium"),AND(B10&lt;&gt;"Closed",C10="Medium",D10="High")),"Red",IF(OR(AND(B10&lt;&gt;"Closed",C10="High",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Medium",D10="Medium"),AND(B10&lt;&gt;"Closed",C10="Low",D10="High")),"Yellow",IF(OR(AND(B10&lt;&gt;"Closed",C10="Medium",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Low",D10="Low"),AND(B10&lt;&gt;"Closed",C10="Low",D10="Medium")),"Green",IF(B10="Closed","Closed",""))))</f>
         <v>Red</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="74" t="s">
+      <c r="F10" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="77" t="s">
-        <v>117</v>
+      <c r="K10" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="61" t="str">
-        <f t="shared" ref="E11:E35" si="1">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
+      <c r="E11" s="53" t="str">
+        <f t="shared" ref="E11:E21" si="1">IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="High"),AND(B11&lt;&gt;"Closed",C11="High",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="High")),"Red",IF(OR(AND(B11&lt;&gt;"Closed",C11="High",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Medium",D11="Medium"),AND(B11&lt;&gt;"Closed",C11="Low",D11="High")),"Yellow",IF(OR(AND(B11&lt;&gt;"Closed",C11="Medium",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Low"),AND(B11&lt;&gt;"Closed",C11="Low",D11="Medium")),"Green",IF(B11="Closed","Closed",""))))</f>
         <v>Green</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="L11" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="12" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79">
+      <c r="A12" s="67">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="61" t="str">
+      <c r="E12" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F12" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="73" t="s">
+      <c r="F12" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="81" t="s">
+      <c r="I12" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="61" t="s">
         <v>122</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="61" t="str">
+      <c r="E13" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F13" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="73" t="s">
+      <c r="F13" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="61" t="s">
         <v>134</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="61" t="str">
+      <c r="E14" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F14" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="73" t="s">
+      <c r="F14" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="73" t="s">
+      <c r="J14" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="61" t="s">
         <v>147</v>
-      </c>
-      <c r="J14" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="73" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="61" t="str">
+      <c r="E15" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="73" t="s">
+      <c r="L15" s="61" t="s">
         <v>150</v>
-      </c>
-      <c r="J15" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="61" t="str">
+      <c r="E16" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="73" t="s">
+      <c r="L16" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="61" t="str">
+      <c r="E17" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="73" t="s">
+      <c r="J17" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="61" t="str">
+      <c r="E18" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Yellow</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="75" t="s">
+      <c r="L18" s="64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="61" t="str">
+      <c r="E19" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="H19" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="73" t="s">
+      <c r="J19" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="61" t="str">
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="53" t="str">
         <f t="shared" si="1"/>
+        <v>Green</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>Yellow</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f>IF(OR(AND(B24&lt;&gt;"Closed",C22="High",D22="High"),AND(B24&lt;&gt;"Closed",C22="High",D22="Medium"),AND(B24&lt;&gt;"Closed",C22="Medium",D22="High")),"Red",IF(OR(AND(B24&lt;&gt;"Closed",C22="High",D22="Low"),AND(B24&lt;&gt;"Closed",C22="Medium",D22="Medium"),AND(B24&lt;&gt;"Closed",C22="Low",D22="High")),"Yellow",IF(OR(AND(B24&lt;&gt;"Closed",C22="Medium",D22="Low"),AND(B24&lt;&gt;"Closed",C22="Low",D22="Low"),AND(B24&lt;&gt;"Closed",C22="Low",D22="Medium")),"Green",IF(B24="Closed","Closed",""))))</f>
+        <v>Yellow</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="75" t="str">
+        <f>IF(OR(AND(B25&lt;&gt;"Closed",C23="High",D23="High"),AND(B25&lt;&gt;"Closed",C23="High",D23="Medium"),AND(B25&lt;&gt;"Closed",C23="Medium",D23="High")),"Red",IF(OR(AND(B25&lt;&gt;"Closed",C23="High",D23="Low"),AND(B25&lt;&gt;"Closed",C23="Medium",D23="Medium"),AND(B25&lt;&gt;"Closed",C23="Low",D23="High")),"Yellow",IF(OR(AND(B25&lt;&gt;"Closed",C23="Medium",D23="Low"),AND(B25&lt;&gt;"Closed",C23="Low",D23="Low"),AND(B25&lt;&gt;"Closed",C23="Low",D23="Medium")),"Green",IF(B25="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="L23" s="77"/>
+    </row>
+    <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="75" t="str">
+        <f>IF(OR(AND(B26&lt;&gt;"Closed",C24="High",D24="High"),AND(B26&lt;&gt;"Closed",C24="High",D24="Medium"),AND(B26&lt;&gt;"Closed",C24="Medium",D24="High")),"Red",IF(OR(AND(B26&lt;&gt;"Closed",C24="High",D24="Low"),AND(B26&lt;&gt;"Closed",C24="Medium",D24="Medium"),AND(B26&lt;&gt;"Closed",C24="Low",D24="High")),"Yellow",IF(OR(AND(B26&lt;&gt;"Closed",C24="Medium",D24="Low"),AND(B26&lt;&gt;"Closed",C24="Low",D24="Low"),AND(B26&lt;&gt;"Closed",C24="Low",D24="Medium")),"Green",IF(B26="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="L24" s="77"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="75" t="str">
+        <f>IF(OR(AND(B27&lt;&gt;"Closed",C25="High",D25="High"),AND(B27&lt;&gt;"Closed",C25="High",D25="Medium"),AND(B27&lt;&gt;"Closed",C25="Medium",D25="High")),"Red",IF(OR(AND(B27&lt;&gt;"Closed",C25="High",D25="Low"),AND(B27&lt;&gt;"Closed",C25="Medium",D25="Medium"),AND(B27&lt;&gt;"Closed",C25="Low",D25="High")),"Yellow",IF(OR(AND(B27&lt;&gt;"Closed",C25="Medium",D25="Low"),AND(B27&lt;&gt;"Closed",C25="Low",D25="Low"),AND(B27&lt;&gt;"Closed",C25="Low",D25="Medium")),"Green",IF(B27="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="75" t="str">
+        <f>IF(OR(AND(B28&lt;&gt;"Closed",C26="High",D26="High"),AND(B28&lt;&gt;"Closed",C26="High",D26="Medium"),AND(B28&lt;&gt;"Closed",C26="Medium",D26="High")),"Red",IF(OR(AND(B28&lt;&gt;"Closed",C26="High",D26="Low"),AND(B28&lt;&gt;"Closed",C26="Medium",D26="Medium"),AND(B28&lt;&gt;"Closed",C26="Low",D26="High")),"Yellow",IF(OR(AND(B28&lt;&gt;"Closed",C26="Medium",D26="Low"),AND(B28&lt;&gt;"Closed",C26="Low",D26="Low"),AND(B28&lt;&gt;"Closed",C26="Low",D26="Medium")),"Green",IF(B28="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="L26" s="78"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75" t="str">
+        <f>IF(OR(AND(B29&lt;&gt;"Closed",C27="High",D27="High"),AND(B29&lt;&gt;"Closed",C27="High",D27="Medium"),AND(B29&lt;&gt;"Closed",C27="Medium",D27="High")),"Red",IF(OR(AND(B29&lt;&gt;"Closed",C27="High",D27="Low"),AND(B29&lt;&gt;"Closed",C27="Medium",D27="Medium"),AND(B29&lt;&gt;"Closed",C27="Low",D27="High")),"Yellow",IF(OR(AND(B29&lt;&gt;"Closed",C27="Medium",D27="Low"),AND(B29&lt;&gt;"Closed",C27="Low",D27="Low"),AND(B29&lt;&gt;"Closed",C27="Low",D27="Medium")),"Green",IF(B29="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="L27" s="78"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75" t="str">
+        <f>IF(OR(AND(B30&lt;&gt;"Closed",C28="High",D28="High"),AND(B30&lt;&gt;"Closed",C28="High",D28="Medium"),AND(B30&lt;&gt;"Closed",C28="Medium",D28="High")),"Red",IF(OR(AND(B30&lt;&gt;"Closed",C28="High",D28="Low"),AND(B30&lt;&gt;"Closed",C28="Medium",D28="Medium"),AND(B30&lt;&gt;"Closed",C28="Low",D28="High")),"Yellow",IF(OR(AND(B30&lt;&gt;"Closed",C28="Medium",D28="Low"),AND(B30&lt;&gt;"Closed",C28="Low",D28="Low"),AND(B30&lt;&gt;"Closed",C28="Low",D28="Medium")),"Green",IF(B30="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="L28" s="78"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="75" t="str">
+        <f>IF(OR(AND(B31&lt;&gt;"Closed",C29="High",D29="High"),AND(B31&lt;&gt;"Closed",C29="High",D29="Medium"),AND(B31&lt;&gt;"Closed",C29="Medium",D29="High")),"Red",IF(OR(AND(B31&lt;&gt;"Closed",C29="High",D29="Low"),AND(B31&lt;&gt;"Closed",C29="Medium",D29="Medium"),AND(B31&lt;&gt;"Closed",C29="Low",D29="High")),"Yellow",IF(OR(AND(B31&lt;&gt;"Closed",C29="Medium",D29="Low"),AND(B31&lt;&gt;"Closed",C29="Low",D29="Low"),AND(B31&lt;&gt;"Closed",C29="Low",D29="Medium")),"Green",IF(B31="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="L29" s="78"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75" t="str">
+        <f>IF(OR(AND(B32&lt;&gt;"Closed",C30="High",D30="High"),AND(B32&lt;&gt;"Closed",C30="High",D30="Medium"),AND(B32&lt;&gt;"Closed",C30="Medium",D30="High")),"Red",IF(OR(AND(B32&lt;&gt;"Closed",C30="High",D30="Low"),AND(B32&lt;&gt;"Closed",C30="Medium",D30="Medium"),AND(B32&lt;&gt;"Closed",C30="Low",D30="High")),"Yellow",IF(OR(AND(B32&lt;&gt;"Closed",C30="Medium",D30="Low"),AND(B32&lt;&gt;"Closed",C30="Low",D30="Low"),AND(B32&lt;&gt;"Closed",C30="Low",D30="Medium")),"Green",IF(B32="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="L30" s="78"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="75" t="str">
+        <f>IF(OR(AND(B33&lt;&gt;"Closed",C31="High",D31="High"),AND(B33&lt;&gt;"Closed",C31="High",D31="Medium"),AND(B33&lt;&gt;"Closed",C31="Medium",D31="High")),"Red",IF(OR(AND(B33&lt;&gt;"Closed",C31="High",D31="Low"),AND(B33&lt;&gt;"Closed",C31="Medium",D31="Medium"),AND(B33&lt;&gt;"Closed",C31="Low",D31="High")),"Yellow",IF(OR(AND(B33&lt;&gt;"Closed",C31="Medium",D31="Low"),AND(B33&lt;&gt;"Closed",C31="Low",D31="Low"),AND(B33&lt;&gt;"Closed",C31="Low",D31="Medium")),"Green",IF(B33="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="43"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="61" t="str">
-        <f t="shared" si="1"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="L31" s="78"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="75" t="str">
+        <f>IF(OR(AND(B34&lt;&gt;"Closed",C32="High",D32="High"),AND(B34&lt;&gt;"Closed",C32="High",D32="Medium"),AND(B34&lt;&gt;"Closed",C32="Medium",D32="High")),"Red",IF(OR(AND(B34&lt;&gt;"Closed",C32="High",D32="Low"),AND(B34&lt;&gt;"Closed",C32="Medium",D32="Medium"),AND(B34&lt;&gt;"Closed",C32="Low",D32="High")),"Yellow",IF(OR(AND(B34&lt;&gt;"Closed",C32="Medium",D32="Low"),AND(B34&lt;&gt;"Closed",C32="Low",D32="Low"),AND(B34&lt;&gt;"Closed",C32="Low",D32="Medium")),"Green",IF(B34="Closed","Closed",""))))</f>
         <v/>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="43"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="43"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="43"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="43"/>
-    </row>
-    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="43"/>
-    </row>
-    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="45"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="L32" s="78"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:D6"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C36:E65535 C1:E1 B6:C6 B7:B10 B12:B35">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C33:E65532 C1:E1 B6:C6 B7:B10 B12:B34">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K35">
-    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E10 E12:E35">
+  <conditionalFormatting sqref="E7:E10 E12:E32">
     <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
@@ -3913,7 +3886,7 @@
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D10 C12:D35">
+  <conditionalFormatting sqref="C7:D10 C12:D32">
     <cfRule type="cellIs" dxfId="11" priority="21" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -3958,16 +3931,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20:K35 C7:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B34">
+      <formula1>"Open,Closed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D32">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H32">
       <formula1>Risk_Area</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B35">
-      <formula1>"Open,Closed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J32">
       <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3994,102 +3967,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="50" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="50" t="s">
         <v>45</v>
       </c>
     </row>
